--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6AFE60-23A3-4913-B157-2F716C32D9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Person</t>
   </si>
@@ -51,6 +44,9 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>SUM</t>
+  </si>
+  <si>
     <t>Tomáš</t>
   </si>
   <si>
@@ -60,52 +56,86 @@
     <t>kolesá</t>
   </si>
   <si>
+    <t>Tamara</t>
+  </si>
+  <si>
     <t>3 skrutky + drevená tyčka</t>
   </si>
   <si>
+    <t>Veronika</t>
+  </si>
+  <si>
+    <t>hornbach</t>
+  </si>
+  <si>
+    <t>Ema</t>
+  </si>
+  <si>
     <t>14x SG90S</t>
   </si>
   <si>
+    <t>na klaviristu</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t>konektory</t>
   </si>
   <si>
     <t>skrutky</t>
   </si>
   <si>
-    <t>hornbach</t>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>Tamara</t>
-  </si>
-  <si>
-    <t>Veronika</t>
-  </si>
-  <si>
-    <t>Ema</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>na klaviristu</t>
+    <t>V-slot profil 2020 - 2 x 300mm</t>
+  </si>
+  <si>
+    <t>V-slot profil 2020 - 2 x 200mm</t>
+  </si>
+  <si>
+    <t>V-slot profil 2040 - 1 x 1100mm</t>
+  </si>
+  <si>
+    <t>Rezanie vláknitého materiálu</t>
+  </si>
+  <si>
+    <t>Doprava</t>
+  </si>
+  <si>
+    <t>skrutka M5x8 x18</t>
+  </si>
+  <si>
+    <t>remeň GT2 6mm, 5 metrov</t>
+  </si>
+  <si>
+    <t>Creality 42-34 NEMA 17 x 2</t>
+  </si>
+  <si>
+    <t>Matica do V-Drážky M5 x 18</t>
+  </si>
+  <si>
+    <t>Remenica pre GT2, 20 zubov x2</t>
+  </si>
+  <si>
+    <t>Napínak remeňa - profil 2020 x2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-41B]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ [$€-41B]"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,7 +143,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,19 +151,356 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -141,37 +508,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -220,7 +870,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -255,7 +905,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -429,182 +1079,333 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="3"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="11.2857142857143" style="1"/>
+    <col min="4" max="4" width="9.90476190476191" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12.67</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(C:C)</f>
+        <v>265.61</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>12.67</v>
-      </c>
-      <c r="G2" s="7">
-        <f>SUM(C:C)</f>
-        <v>105.03</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>15.92</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
         <f>SUMIF(A:A,G3,C:C)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>1.48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
         <f>SUMIF(A:A,G4,C:C)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
         <v>16.12</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
         <f>SUMIF(A:A,G5,C:C)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
         <v>47.18</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="7" t="str">
         <f>HYPERLINK("invoices/laskakit_202514997.pdf","laskakit")</f>
         <v>laskakit</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SUMIF(A:A,G6,C:C)</f>
+        <v>160.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3">
-        <f>SUMIF(A:A,G6,C:C)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="C7" s="1">
+        <v>9.2</v>
+      </c>
+      <c r="D7" s="8" t="str">
         <f>HYPERLINK("invoices/techfun_202515953.pdf","techfun")</f>
         <v>techfun</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
         <f>SUMIF(A:A,G7,C:C)</f>
         <v>105.03</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.46</v>
       </c>
-      <c r="D8" s="4" t="str">
-        <f>HYPERLINK("invoices/hornbach_001.jpg", "hornbach")</f>
+      <c r="D8" s="8" t="str">
+        <f>HYPERLINK("invoices/hornbach_001.jpg","hornbach")</f>
         <v>hornbach</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.22</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10.81</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>HYPERLINK("invoices/Caxtool.pdf","Caxtool")</f>
+        <v>Caxtool</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="8" t="str">
+        <f>HYPERLINK("invoices/turtle_ostatne.pdf","Turtle")</f>
+        <v>Turtle</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.61</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f>HYPERLINK("invoices/na3D.pdf","Na3D")</f>
+        <v>Na3D</v>
       </c>
     </row>
   </sheetData>
@@ -613,5 +1414,6 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Person</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Napínak remeňa - profil 2020 x2</t>
+  </si>
+  <si>
+    <t>V-sanky 2040-4040 * 2</t>
+  </si>
+  <si>
+    <t>V-drziak-sanky-motor *2</t>
   </si>
 </sst>
 </file>
@@ -130,7 +136,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00\ [$€-41B]"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +164,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -609,146 +608,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="G2" s="5">
         <f>SUM(C:C)</f>
-        <v>265.61</v>
+        <v>300.58</v>
       </c>
       <c r="H2" s="5"/>
     </row>
@@ -1212,7 +1211,7 @@
       </c>
       <c r="H6" s="1">
         <f>SUMIF(A:A,G6,C:C)</f>
-        <v>160.58</v>
+        <v>195.55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1406,6 +1405,43 @@
       <c r="D21" s="8" t="str">
         <f>HYPERLINK("invoices/na3D.pdf","Na3D")</f>
         <v>Na3D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.47</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f>HYPERLINK("invoices/aliexpress_sanky.pdf","aliexpress")</f>
+        <v>aliexpress</v>
       </c>
     </row>
   </sheetData>

--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572778C7-248C-4AC9-A161-BB68F4E49BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>Person</t>
   </si>
@@ -123,20 +127,25 @@
   </si>
   <si>
     <t>V-drziak-sanky-motor *2</t>
+  </si>
+  <si>
+    <t>techfun</t>
+  </si>
+  <si>
+    <t>2x servo driver + 2x vypínač</t>
+  </si>
+  <si>
+    <t>2x RGB matrix + 4pin konektor + 2x driver na krokové motory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ [$€-41B]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-41B]"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,338 +177,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -507,320 +194,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1078,23 +481,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" style="1"/>
-    <col min="4" max="4" width="9.90476190476191" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1105,7 +508,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1114,10 +517,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -1129,11 +532,11 @@
       <c r="C2" s="1">
         <v>12.67</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>SUM(C:C)</f>
-        <v>300.58</v>
-      </c>
-      <c r="H2" s="5"/>
+        <v>330.99</v>
+      </c>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1145,7 +548,7 @@
       <c r="C3" s="1">
         <v>15.92</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1">
@@ -1163,7 +566,7 @@
       <c r="C4" s="1">
         <v>1.48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1">
@@ -1181,7 +584,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1">
@@ -1199,14 +602,14 @@
       <c r="C6" s="1">
         <v>47.18</v>
       </c>
-      <c r="D6" s="7" t="str">
+      <c r="D6" s="3" t="str">
         <f>HYPERLINK("invoices/laskakit_202514997.pdf","laskakit")</f>
         <v>laskakit</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1">
@@ -1222,21 +625,21 @@
         <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>9.2</v>
-      </c>
-      <c r="D7" s="8" t="str">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D7" s="4" t="str">
         <f>HYPERLINK("invoices/techfun_202515953.pdf","techfun")</f>
         <v>techfun</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="1">
         <f>SUMIF(A:A,G7,C:C)</f>
-        <v>105.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>135.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1246,12 +649,12 @@
       <c r="C8" s="1">
         <v>2.46</v>
       </c>
-      <c r="D8" s="8" t="str">
+      <c r="D8" s="4" t="str">
         <f>HYPERLINK("invoices/hornbach_001.jpg","hornbach")</f>
         <v>hornbach</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1259,11 +662,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="1">
-        <v>10.22</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:3">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1274,7 +677,7 @@
         <v>6.81</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +688,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +699,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1306,12 +709,12 @@
       <c r="C13" s="1">
         <v>10.81</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D13" s="4" t="str">
         <f>HYPERLINK("invoices/Caxtool.pdf","Caxtool")</f>
         <v>Caxtool</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +725,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +736,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +747,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +758,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +769,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1376,12 +779,12 @@
       <c r="C19" s="1">
         <v>3.6</v>
       </c>
-      <c r="D19" s="8" t="str">
+      <c r="D19" s="4" t="str">
         <f>HYPERLINK("invoices/turtle_ostatne.pdf","Turtle")</f>
         <v>Turtle</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +795,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1402,12 +805,12 @@
       <c r="C21" s="1">
         <v>6.61</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D21" s="4" t="str">
         <f>HYPERLINK("invoices/na3D.pdf","Na3D")</f>
         <v>Na3D</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +821,7 @@
         <v>23.26</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1426,10 +829,10 @@
         <v>31</v>
       </c>
       <c r="C23" s="1">
-        <v>2.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1437,11 +840,43 @@
         <v>23</v>
       </c>
       <c r="C24" s="1">
-        <v>9.47</v>
-      </c>
-      <c r="D24" s="8" t="str">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="D24" s="4" t="str">
         <f>HYPERLINK("invoices/aliexpress_sanky.pdf","aliexpress")</f>
         <v>aliexpress</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1">
+        <v>14.46</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f>HYPERLINK("invoices/laskakit_202519939.pdf", "laskakit")</f>
+        <v>laskakit</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1450,6 +885,5 @@
     <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572778C7-248C-4AC9-A161-BB68F4E49BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C9F5B-2259-480F-AFDD-A5C8E0581E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Person</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>V-drziak-sanky-motor *2</t>
-  </si>
-  <si>
-    <t>techfun</t>
   </si>
   <si>
     <t>2x servo driver + 2x vypínač</t>
@@ -490,7 +487,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -852,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>14.46</v>
@@ -870,13 +867,14 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1">
         <v>15.95</v>
       </c>
-      <c r="D26" t="s">
-        <v>32</v>
+      <c r="D26" s="3" t="str">
+        <f>HYPERLINK("invoices/techfun_202518089.pdf","techfun")</f>
+        <v>techfun</v>
       </c>
     </row>
   </sheetData>

--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6C9F5B-2259-480F-AFDD-A5C8E0581E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A82F7-8603-4B0C-98E4-13302266E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>Person</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>2x RGB matrix + 4pin konektor + 2x driver na krokové motory</t>
+  </si>
+  <si>
+    <t>3x ESP32</t>
+  </si>
+  <si>
+    <t>techfun</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -531,7 +537,7 @@
       </c>
       <c r="G2" s="6">
         <f>SUM(C:C)</f>
-        <v>330.99</v>
+        <v>354.84000000000003</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -633,7 +639,7 @@
       </c>
       <c r="H7" s="1">
         <f>SUMIF(A:A,G7,C:C)</f>
-        <v>135.44</v>
+        <v>159.29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -875,6 +881,20 @@
       <c r="D26" s="3" t="str">
         <f>HYPERLINK("invoices/techfun_202518089.pdf","techfun")</f>
         <v>techfun</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23.85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67A82F7-8603-4B0C-98E4-13302266E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC80AF5-AA40-4A71-81D1-6B6375F8E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Person</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>3x ESP32</t>
-  </si>
-  <si>
-    <t>techfun</t>
   </si>
 </sst>
 </file>
@@ -492,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -537,7 +534,7 @@
       </c>
       <c r="G2" s="6">
         <f>SUM(C:C)</f>
-        <v>354.84000000000003</v>
+        <v>357.59000000000003</v>
       </c>
       <c r="H2" s="6"/>
     </row>
@@ -639,7 +636,7 @@
       </c>
       <c r="H7" s="1">
         <f>SUMIF(A:A,G7,C:C)</f>
-        <v>159.29</v>
+        <v>162.04</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -891,10 +888,11 @@
         <v>34</v>
       </c>
       <c r="C27" s="1">
-        <v>23.85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
+        <v>26.6</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f>HYPERLINK("invoices/techfun_202520706.pdf","techfun")</f>
+        <v>techfun</v>
       </c>
     </row>
   </sheetData>

--- a/finances/expenses.xlsx
+++ b/finances/expenses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cakan\Documents\GitHub\CompaneroBots\finances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC80AF5-AA40-4A71-81D1-6B6375F8E2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DD2F1-2299-4BCF-9F5F-92423AEDE57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>Person</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>3x ESP32</t>
+  </si>
+  <si>
+    <t>2x 12V DC motor</t>
+  </si>
+  <si>
+    <t>vypínače 2x</t>
+  </si>
+  <si>
+    <t>vypinač, 2 žilový kábel, prepájacie kabliky</t>
+  </si>
+  <si>
+    <t>Skrutky</t>
+  </si>
+  <si>
+    <t>5x Servo MG996R</t>
+  </si>
+  <si>
+    <t>Závesy + oblečenie robotov</t>
+  </si>
+  <si>
+    <t>dvojžilový kábel, prepájacie kábliky, battery holder 18650</t>
+  </si>
+  <si>
+    <t>black color and primer</t>
+  </si>
+  <si>
+    <t>sparkling tape for decoration</t>
   </si>
 </sst>
 </file>
@@ -178,12 +205,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -199,12 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,17 +521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="1"/>
-    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,10 +551,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -532,11 +566,11 @@
       <c r="C2" s="1">
         <v>12.67</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <f>SUM(C:C)</f>
-        <v>357.59000000000003</v>
-      </c>
-      <c r="H2" s="6"/>
+        <v>490.53</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -589,7 +623,7 @@
       </c>
       <c r="H5" s="1">
         <f>SUMIF(A:A,G5,C:C)</f>
-        <v>0</v>
+        <v>132.94</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -893,6 +927,141 @@
       <c r="D27" s="3" t="str">
         <f>HYPERLINK("invoices/techfun_202520706.pdf","techfun")</f>
         <v>techfun</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f>HYPERLINK("invoices/doklad_41537449.pdf","drotik elektro")</f>
+        <v>drotik elektro</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f>HYPERLINK("invoices/img20250703_23285133.pdf","schotter")</f>
+        <v>schotter</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f>HYPERLINK("invoices/img20250703_23285133.pdf","schotter")</f>
+        <v>schotter</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f>HYPERLINK("invoices/img20250703_23273714.pdf","hornbach")</f>
+        <v>hornbach</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f>HYPERLINK("invoices/img20250703_23092925.pdf","techfun")</f>
+        <v>techfun</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1">
+        <v>50.52</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f>HYPERLINK("invoices/514822527_1793669758214523_1982848012683220186_n (1).jpg","shein")</f>
+        <v>shein</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f>HYPERLINK("invoices/img20250703_23285133.pdf","schotter")</f>
+        <v>schotter</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f>HYPERLINK("invoices/Scanned_20250710_122149.pdf","hornbach")</f>
+        <v>hornbach</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f>HYPERLINK("invoices/Scanned_20250710_122252.pdf","tedi")</f>
+        <v>tedi</v>
       </c>
     </row>
   </sheetData>
